--- a/detailed_interactions_cards_done_list_devops.xlsx
+++ b/detailed_interactions_cards_done_list_devops.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D126"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,88 +483,88 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>65707c188c9e1e42079b19a3</t>
+          <t>6595ca54d8d14536fb393347</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[Apoyo]: Creación del pipeline para la carga de de usuarios para el perfil empresas</t>
+          <t>[Apoyo]: Preparación de ambiente en stg para pruebas de rendimiento</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-08</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6595ca54d8d14536fb393347</t>
+          <t>65707c188c9e1e42079b19a3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[Apoyo]: Preparación de ambiente en stg para pruebas de rendimiento</t>
+          <t>[Apoyo]: Creación del pipeline para la carga de de usuarios para el perfil empresas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>657232774f2b0b4d6031ad99</t>
+          <t>65707c56879793039e33238f</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: https://github.com/yaperos/ms-merchant-transaction-presential-result-bs</t>
+          <t>[Apoyo]: Creación del pipeline para la carga de de usuarios para el perfil empresas</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>65707c56879793039e33238f</t>
+          <t>657232774f2b0b4d6031ad99</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[Apoyo]: Creación del pipeline para la carga de de usuarios para el perfil empresas</t>
+          <t>[Primer Despliegue]: https://github.com/yaperos/ms-merchant-transaction-presential-result-bs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
@@ -637,12 +637,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>65958f8bca2acd843966b67c</t>
+          <t>65959000bd6deadf385b8f4d</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-convenience-portalseller-bs</t>
+          <t>[Primer Despliegue]: https://github.com/yaperos/app-convenience-portalseller-web</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -652,19 +652,19 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>65958f8bca2acd843966b67c</t>
+          <t>65959000bd6deadf385b8f4d</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-convenience-portalseller-bs</t>
+          <t>[Primer Despliegue]: https://github.com/yaperos/app-convenience-portalseller-web</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -681,78 +681,78 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>65a54e42fcba78f9306a12ea</t>
+          <t>658ee240b0382e06a02ca2b7</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Primer deploy ms-corecx-backoffice</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-15</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>65a54e42fcba78f9306a12ea</t>
+          <t>658ee240b0382e06a02ca2b7</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Primer deploy ms-corecx-backoffice</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Eumir Ollarvez</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>658ee240b0382e06a02ca2b7</t>
+          <t>65958f8bca2acd843966b67c</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[Apoyo]: Primer deploy ms-corecx-backoffice</t>
+          <t>[Primer Despliegue]: ms-convenience-portalseller-bs</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>658ee240b0382e06a02ca2b7</t>
+          <t>65958f8bca2acd843966b67c</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[Apoyo]: Primer deploy ms-corecx-backoffice</t>
+          <t>[Primer Despliegue]: ms-convenience-portalseller-bs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
@@ -835,12 +835,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>659815165bfc346139ef695d</t>
+          <t>659814d41ad017740115131f</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-transaction-reprocess</t>
+          <t>[Primer Despliegue]: ms-movement-reprocess</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -857,12 +857,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>659815165bfc346139ef695d</t>
+          <t>659814d41ad017740115131f</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-transaction-reprocess</t>
+          <t>[Primer Despliegue]: ms-movement-reprocess</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -879,12 +879,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>659815165bfc346139ef695d</t>
+          <t>659814d41ad017740115131f</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-transaction-reprocess</t>
+          <t>[Primer Despliegue]: ms-movement-reprocess</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -901,12 +901,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>65959000bd6deadf385b8f4d</t>
+          <t>65b3b70d430b9ff96bca1d57</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: https://github.com/yaperos/app-convenience-portalseller-web</t>
+          <t>[Apoyo]: Solicitud para enviar los valores de algunos secretos (event-gateway)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -916,36 +916,36 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2024-01-30</t>
+          <t>2024-01-26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>65959000bd6deadf385b8f4d</t>
+          <t>65a54e42fcba78f9306a12ea</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: https://github.com/yaperos/app-convenience-portalseller-web</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Eumir Ollarvez</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-23</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>65a563fa9de7ceb369bc2b81</t>
+          <t>65a54e42fcba78f9306a12ea</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -955,12 +955,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Anderson Rodrigues</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2024-01-23</t>
+          <t>2024-01-15</t>
         </is>
       </c>
     </row>
@@ -977,73 +977,73 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-23</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>65b3b70d430b9ff96bca1d57</t>
+          <t>65a563fa9de7ceb369bc2b81</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>[Apoyo]: Solicitud para enviar los valores de algunos secretos (event-gateway)</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Anderson Rodrigues</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2024-01-26</t>
+          <t>2024-01-15</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>659814d41ad017740115131f</t>
+          <t>65a59b95bbbbd6dc7a48a9f9</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-movement-reprocess</t>
+          <t>[Apoyo]: Acceso silabuz ambientes vtex</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2024-01-29</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>659814d41ad017740115131f</t>
+          <t>65a548d291d1a2eeecbacc11</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-movement-reprocess</t>
+          <t>[Apoyo]: Se solicita registrar un nuevo equipo llamado 'ticketing' en slack</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Lucas Ventura</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1055,44 +1055,44 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>659814d41ad017740115131f</t>
+          <t>65a548d291d1a2eeecbacc11</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-movement-reprocess</t>
+          <t>[Apoyo]: Se solicita registrar un nuevo equipo llamado 'ticketing' en slack</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Eumir Ollarvez</t>
+          <t>Angely Lozano Dávila</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2024-01-05</t>
+          <t>2024-01-16</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>65a59b95bbbbd6dc7a48a9f9</t>
+          <t>65a548d291d1a2eeecbacc11</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso silabuz ambientes vtex</t>
+          <t>[Apoyo]: Se solicita registrar un nuevo equipo llamado 'ticketing' en slack</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Anderson Rodrigues</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-16</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Gabriel Henrique Pereira Ferreira</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1121,39 +1121,39 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>65a548d291d1a2eeecbacc11</t>
+          <t>659815165bfc346139ef695d</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se solicita registrar un nuevo equipo llamado 'ticketing' en slack</t>
+          <t>[Primer Despliegue]: ms-transaction-reprocess</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Angely Lozano Dávila</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>65a548d291d1a2eeecbacc11</t>
+          <t>659815165bfc346139ef695d</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se solicita registrar un nuevo equipo llamado 'ticketing' en slack</t>
+          <t>[Primer Despliegue]: ms-transaction-reprocess</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Lucas Ventura</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1165,22 +1165,22 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>65a548d291d1a2eeecbacc11</t>
+          <t>659815165bfc346139ef695d</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se solicita registrar un nuevo equipo llamado 'ticketing' en slack</t>
+          <t>[Primer Despliegue]: ms-transaction-reprocess</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Eumir Ollarvez</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-05</t>
         </is>
       </c>
     </row>
@@ -1231,105 +1231,105 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>658af40b5cb113d82f55a528</t>
+          <t>65957e6d4b1135302e04a9d9</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso operaciones ambientes vtex prod</t>
+          <t>[Apoyo]: [apoyo]: revisión pr: core-toggle-definitions</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Gabriel Henrique Pereira Ferreira</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>65a823f25215286da105fb7f</t>
+          <t>6595768936e8c3c58d4f0676</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>[Acceso]: Crear usuario nuevo</t>
+          <t>[Apoyo]: Configuración para unleash</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Gabriel Henrique Pereira Ferreira</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2024-01-22</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>65ae8f9ce0fa30093f651e95</t>
+          <t>65957ec9abed2981a80ee097</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Apoyo]: Accesos seller achorao vtex </t>
+          <t>[Apoyo]: Ejecutar query en prd</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Gabriel Henrique Pereira Ferreira</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>65aebf47dea8478bc6eccf9d</t>
+          <t>65957d9e093c23877ba88289</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Apoyo]: Acceso seller usams vtex </t>
+          <t>[Apoyo]: Verificar registro en redis</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2024-01-24</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>65a6a8bdc16296d866837e76</t>
+          <t>65a5a24c8645cd167004fdb8</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>[Apoyo]: [yape][checkout] - permisos de aplicación para escritura en firestore</t>
+          <t>[Apoyo]: Aprovisionar ms-merchant-transaction-presential-result-bs en prd</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1341,56 +1341,56 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>65a6a8bdc16296d866837e76</t>
+          <t>65a5a24c8645cd167004fdb8</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>[Apoyo]: [yape][checkout] - permisos de aplicación para escritura en firestore</t>
+          <t>[Apoyo]: Aprovisionar ms-merchant-transaction-presential-result-bs en prd</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Eumir Ollarvez</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-16</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>65981fd7f7d7e6c650b33886</t>
+          <t>65956f44803d8568ced347a6</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>[Apoyo]: Verificar registro en redis</t>
+          <t>[Apoyo]: Error de despliegue en stg</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>65a031a7d9e80848d1c03f5a</t>
+          <t>65b11b40450be913e84556e2</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[Apoyo]: Actualizar esquema en tópico de debezium</t>
+          <t>[Apoyo]: Crear conector debezium para bd del servicio ms-tap2phone-activacion en qa</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1400,332 +1400,332 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>65a0272dc0465d4158f59c66</t>
+          <t>659493bcef61bc0fc46584cd</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>[Apoyo]: Reset del pin pritunl qa</t>
+          <t>[Apoyo]: Error en conexion a base yape 3.0 desde databricks</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>65a06050eb007f7f0b442b50</t>
+          <t>6595f064e95b8d630d136612</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>[Apoyo]: Paso a producción ms-bank-account</t>
+          <t>[Apoyo]: Nuevo espacio y acceso a datocms remesas</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Gabriel Henrique Pereira Ferreira</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-15</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>65a061112b905ce9e788bc5b</t>
+          <t>6595f064e95b8d630d136612</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>[Apoyo]: Secretos para encrypt</t>
+          <t>[Apoyo]: Nuevo espacio y acceso a datocms remesas</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-08</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>659bfe55c55e89e8d57bbff9</t>
+          <t>659eac94200f666487e83459</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error en schema_registry_validation</t>
+          <t>[Apoyo]: Aggregar workflow in datocms en la rama main</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-15</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>65a007846c7070ea517d382b</t>
+          <t>65a06e238695574993008bed</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error al abrir vault de stg desde okta (conectado a la vpn de stg)</t>
+          <t>[Apoyo]: Promover releases de gaming a prd</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Lucas Ventura</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-15</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>65a014de609e38efc62af717</t>
+          <t>658d9f30a54779a6db77dc57</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso operaciones vtex - welldone</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>659de78e899150e492a29951</t>
+          <t>658ec9d81f867a05d5b66bed</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error en despliegue de ms-mobile-bff en qa</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-04</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>65a029abce076d2d6b1692bd</t>
+          <t>65942cd1e5e6a4b85857689c</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>[Apoyo]: Reinicio de pods ms-bank-account</t>
+          <t>[Acceso]: Eliminar usuario</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>65a05b155f3587b6e3818f80</t>
+          <t>6569face5787e93670b3fbee</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>[Apoyo]: Paso a prod de promos</t>
+          <t>[Apoyo]: Aprovisionamiento de infraestructura redis</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-03</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>659f114df9a602034ddb2eef</t>
+          <t>658ec9e0278d7c6f4c7fe23f</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Promover release a prd de gaming-purchase</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-08</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>659e20e4056e7cd717ad1813</t>
+          <t>65942cedaea808bcea7a25cf</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>[Acceso]: Crear usuario nuevo</t>
+          <t>[Acceso]: Eliminar usuario</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>65a046677022ecdd384fbda1</t>
+          <t>65942d2f7a5f2863561aa3f8</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Acceso]: Eliminar usuario</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>65a04edb69835acc43943f6b</t>
+          <t>659431446753f1f78285932c</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>[Apoyo]: Query postgresql</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>659c0c3ead3863d9b1a33461</t>
+          <t>65981b074eb9a4ce60aa471d</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>[Apoyo]: Agregar a equipos (tribu experiencia,  reclamos &amp; otros canales)</t>
+          <t>[Apoyo]: Cargar datos de usuario para posibilitar troubleshotting</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-12</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>659ebe43b69f949d7ebcf421</t>
+          <t>65981b074eb9a4ce60aa471d</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Cargar datos de usuario para posibilitar troubleshotting</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Lucas Ventura</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1737,29 +1737,29 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>65a046de45c0b37d3676f3e5</t>
+          <t>659434937aeaf7dbc43c0d84</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>[Apoyo]: Paso a prd remesas</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>659f12bfa9c88937ae5daffc</t>
+          <t>65943d5b208a8c2dad0172a2</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1769,46 +1769,46 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>65a050ca5304cd3a177e0799</t>
+          <t>658eecbb47bc97993278e116</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[Apoyo]: Aprobacion de pr</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>659f2120fccdf70645dd7773</t>
+          <t>65b13436315bdf480e0a68c1</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso dato cms</t>
+          <t xml:space="preserve">[Apoyo]: Accesos seller  watch center vtex </t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1818,63 +1818,63 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>659c0cb95322d0c57b290894</t>
+          <t>65b1315b6a65ff2d355c9e62</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se solicita correr script y exportar resultados.</t>
+          <t>[Acceso]: Crear usuario nuevo</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>65a0513df04e859347b8c9b1</t>
+          <t>65aa7e214ba99e8bc5965a81</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>[Apoyo]: Reiniciar pods en prod</t>
+          <t>[Apoyo]: Error al ejecutar el build en qa del servicio core-toggle-definitions</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>659f130c6f92686fd95a25af</t>
+          <t>65b133fbbca30f1e0942d42f</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Error en action</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1884,107 +1884,107 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>659bfd5c33768aa1a288c108</t>
+          <t>65aea17be58050b91b770f94</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[Apoyo]: Despliegue para prod</t>
+          <t>[Apoyo]: Actualizar nombre de columna en tabla customers en postgresql de customer.io</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-23</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>65a14cad4302655b10f47501</t>
+          <t>659ebf7d1d6166cebec462ce</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[Apoyo]: Query en producción</t>
+          <t>[Apoyo]: Remoción y creación de nuevo repositorio</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-10</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>65a14f5b82ac8181fd63292b</t>
+          <t>65b121c8c81635d0727be674</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[Apoyo]: Crear conector debezium para bd de ms-consent-bs</t>
+          <t>[Apoyo]: [ms-insurance-bs] aprobación para el despliegue a prod</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>659ec19da1020027d342585f</t>
+          <t>65aa7432366706cbc6320659</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se bloquio la cuenta okta</t>
+          <t>[Apoyo]: Aprobacion de pr - marketplace</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-19</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>659ee42c256b1a9858aee0c3</t>
+          <t>65b13c6dd8b150f10479436c</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>[Apoyo]: Consulta variables en stg y prod</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1994,24 +1994,24 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>659ffb6609d4cb1cbdc74996</t>
+          <t>659ecdcdcb474bc55e9995fb</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso comercial savar vtex2</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2023,34 +2023,34 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>659c0e9369833a10c8d2a221</t>
+          <t>65b13e22d02536d1ef148a0f</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Promover release a prod en yapetienda</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>659ffc1079f55ac553209b12</t>
+          <t>659ef792732c1a920fa4722a</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>[Apoyo]: Ejecutar script en prod</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2060,41 +2060,41 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>2024-01-11</t>
+          <t>2024-01-10</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>659ec23e762374e9508550b2</t>
+          <t>659f0fb28f04b5a9f9798420</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>[Apoyo]: Crear conector debezium para nueva tabla en 'ms-ticketing-purchase-bs' en qa</t>
+          <t>[Apoyo]: Despliegue para prod</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>65a17d778c2dd8b78551d765</t>
+          <t>659f4ddec1300e5bfd90b40e</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secret en vault</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2104,19 +2104,19 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>65a17a91faa5d18dab328326</t>
+          <t>659f209605f7e34a617abfbc</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>[Apoyo]: Ejecutar query en prod</t>
+          <t>[Apoyo]: Error en build de pull request</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2126,19 +2126,19 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>659ec4f57223bb93c7292f7e</t>
+          <t>65ae909d89a882957554fd41</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>[Apoyo]: Compartir secretos de ms-gas-purchase-bs de qa</t>
+          <t>[Apoyo]: [ms-insurance-bff] aprobación de pr</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2148,14 +2148,14 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>659eef982a4d60b96e992c85</t>
+          <t>65a0207570f62e7ca3dfb953</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2165,200 +2165,200 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Davis Palomino Huallanca</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>659c10f22709867dc7ff53ed</t>
+          <t>65aaa6fe2fe078c8d7eec340</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Apoyo]: Apoyo en la creación de secretos para topicos de cashflow </t>
+          <t>[Apoyo]: Matenimiento de deadlock base crm qa</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Gabriel Henrique Pereira Ferreira</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-19</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>659c250a9a404430920050cb</t>
+          <t>65b1446b7e84ec9bc9e637bf</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso operaciones nuevos ambientes vtex 7</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>6594374c4c8bcf4acb4d490b</t>
+          <t>659ff411e53a549d88789bb6</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error en acceso a okta</t>
+          <t>[Apoyo]: Paso a prod ms-exchange-rate</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>2024-01-03</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>658ee0faf6a6a15548d7558e</t>
+          <t>65b144bc6d21af62bbc0197a</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[Apoyo]: Agregar variables en vault para el entorno de qa (ms-merchant-transaction-presential-result-bs)</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>65a1868087d65f2792c0b82c</t>
+          <t>659f11082e253ca570b8a6a0</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Agregar las siguientes secrets en vault(masiv_credentials)</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-10</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>659c6c679477a045b6743ae7</t>
+          <t>65b147715338826a604c198c</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[Apoyo]: Apoyo con revisión de pull request (ms-merchant-transaction-presential-result-bs)</t>
+          <t>[Apoyo]: Preparación de ambiente stg para pruebas de performance de  los siguientes microservicios:</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>659817aa1e491d6397643bac</t>
+          <t>65addf460e8d42e72ac5785b</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Añadir columna en tabla customers en postgresql de customer.io</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>65a838b40aa1073fe1ed75fc</t>
+          <t>65a02b1af7e10828574a4fbe</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>[Apoyo]: [ms-insurance-bs] aprobación de pr</t>
+          <t>[Apoyo]: Revisión de primer pr</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>659ed1cd88b8c23e47a98c7c</t>
+          <t>65a02dffceca9522bd17447c</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se solicita replicar algunas secrets de qa a stg en 'ms-ticketing-purchase-bs'.</t>
+          <t>[Apoyo]: Problema con despliegue de ms-mobile-bff</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2368,14 +2368,14 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-11</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>65a18762634c69cf9a6952d9</t>
+          <t>65b144f87f4f6eccc708a6ee</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2385,68 +2385,68 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>659c30c1a13c0796cef27098</t>
+          <t>65ae7e6ad65c110e36a10557</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Aprobar paso a produccion core-toggle-definitions</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>2024-01-09</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>65a5a33930768d0af166d591</t>
+          <t>65ae7bca4b2a8fe41b764084</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>[Apoyo]: Pull request</t>
+          <t>[Apoyo]: Aprobar action de core-toggle-definitions en prod</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>659ed5931223625e437c2f69</t>
+          <t>65ae84927942e38fecd4d7c5</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Promover release a prod</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -2456,278 +2456,278 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>2024-01-10</t>
+          <t>2024-01-22</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>65a583bf8387192f29981028</t>
+          <t>65aed39e3190c5b6e9b76e38</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[Apoyo]: Problema para ingresar unleash</t>
+          <t>[Apoyo]: Agregar columna en tabla customers del postgresql customer.io</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-23</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>65a1faf30666430ca5f40036</t>
+          <t>65b161a0d893b9f9ebdc17cb</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>[Apoyo]: Eliminar topico confluent</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>2024-01-19</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>65a1faf30666430ca5f40036</t>
+          <t>65b15eadfaae1af18298e95a</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[Apoyo]: Eliminar topico confluent</t>
+          <t>[Apoyo]: Despliegue en prd de static-files-storage, release/v0.0.5</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>65a59d15773549406defe365</t>
+          <t>65b15eadfaae1af18298e95a</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>[Apoyo]: Validar disponiblidad de rutas y tópicos de event gateway</t>
+          <t>[Apoyo]: Despliegue en prd de static-files-storage, release/v0.0.5</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>658ee2d595a31d61053e59e0</t>
+          <t>65b1658105fdbd1288822af5</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>[Apoyo]: Revisión pr de ms-corecx-bff</t>
+          <t>[Apoyo]: Eliminar tópico / esquema qa</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>65a598c9d917c918a8618479</t>
+          <t>65b16ded157ffdcf4804ed1c</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[Apoyo]: Observacion seguridad owasp</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Lucas Ventura</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>65a538d0c06878a652104b69</t>
+          <t>65b16ded157ffdcf4804ed1c</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>[Apoyo]: Remover a borrajo del team de ticketing</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Lucas Ventura</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>65a69348c9ff58846fd98ec0</t>
+          <t>65b16ded157ffdcf4804ed1c</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>[Apoyo]: Aprobacion de pr de delivery partner</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>65a57321ca688595e27517c9</t>
+          <t>65aee8b718bddd446549899f</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>[Apoyo]: Configuración tópicos conector debezium de promos por migración a yape3mp</t>
+          <t>[Apoyo]: Actualizar schema de tópico de ticket audits en qa</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-23</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>65a6df93402b60614d22cdcd</t>
+          <t>65b1794cecb51a12893bab7c</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>[Apoyo]: Creacion canal en slack</t>
+          <t>[Apoyo]: Acceso por usuario a herramienta atlan-prd</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>65a6dfa8e22e2fb5f40c5f33</t>
+          <t>65b189f5914ffb684632080d</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>[Apoyo]: Despliegue del backend, bff y front de crm a prod</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>65a53dea40492dc4405ee40c</t>
+          <t>65b18d5d0e15ca0c38c28c8e</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>[Apoyo]: Eliminar repositorio ms-merchant-activation-outbox-bs</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>65a5b35c17440ad8147f1ab8</t>
+          <t>65b1948ffb1ea8e0f91b2d9e</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -2737,222 +2737,222 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>65a5a3503a4a3aa7978b8e53</t>
+          <t>65b1965cfef09dc1aa66c651</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>[Acceso]: Crear usuario nuevo</t>
+          <t>[Apoyo]: Solicito cambiar mi role en okta al de lt.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-24</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>65a54ce597bf8c012da55f83</t>
+          <t>659450631d730d095f317068</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secret en vault</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-02</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>65a550eba839d82dd7566ef4</t>
+          <t>65b198f424cfd4eb7a3ee44a</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>[Acceso]: Crear usuario nuevo</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Lucas Ventura</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>65a54d2bb964d0cf723f9319</t>
+          <t>65b198f424cfd4eb7a3ee44a</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secret en vault</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>65a6f12e99263dc4d98f8c07</t>
+          <t>65b269bbf819b1ea750502cb</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secreto [ms-movement-reprocess]</t>
+          <t>[Apoyo]: Acceso soporte vtex mkp</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>659735c93d89b48513cddedb</t>
+          <t>65b26a161180c7a8a9a92a90</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Corregir apellido en slack</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>65a6f0c48123402c3d6028b5</t>
+          <t>65afc3ff7c39fbe04bb28185</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secreto [ms-transaction-replicator]</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-23</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>65a6f1c906604f5906b6f3f5</t>
+          <t>65b272bc31ab3a1b9c254a54</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secreto [ms-transaction-reprocess]</t>
+          <t>[Apoyo]: Agregar secrets en proyecto ms-merchant-transaction-presential-result-bs</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Diego Malicia</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>65a551d1a7c5fdfafe91a178</t>
+          <t>65a6ef1ed64383f74192f496</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>[Acceso]: Crear usuario nuevo</t>
+          <t>[Apoyo]: Registrar secreto [ms-movement-collector]</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-17</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>65a1557d1c9a9d066d2155b4</t>
+          <t>65b27d2b2f8077cefa0022ea</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error con okta</t>
+          <t>[Acceso]: Crear usuario nuevo</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2962,41 +2962,41 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>2024-01-12</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>65a68b04880470ce9410740f</t>
+          <t>65b262b43738b401fa5ac7f6</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>[Apoyo]: Reinicio pods ms-crm-ticket-handler</t>
+          <t>[Apoyo]: Ip publicas de ms-gaming-purchase-bs de qa y stg</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-26</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>65a68e6083cf732ef8042253</t>
+          <t>65b28387c662e557b9cf7fed</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Error en url publica de gaming y ticketing de qa</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -3006,63 +3006,63 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>2024-01-17</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>65a551df0bd5a385f5664f33</t>
+          <t>65b27f258908c924e4c04781</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar un key y secret para customer.io</t>
+          <t>[Apoyo]: Aprobación de reinicio de pods</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>6594012c8eccb2c717d95a49</t>
+          <t>65a6f2db9d6e370bbe3e0baa</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>[Apoyo]: Obtener datos de la base de datos de insurance</t>
+          <t>[Apoyo]: Verificar registro en redis</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Diego Malicia</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>2024-01-02</t>
+          <t>2024-01-17</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>65a552ffb1a50d361af4ad84</t>
+          <t>65a6f2db9d6e370bbe3e0baa</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Verificar registro en redis</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -3072,41 +3072,41 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-17</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>65a57be81db1e8d360bf3deb</t>
+          <t>65b2cfe2010f4c0f232e90e4</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t xml:space="preserve">[Apoyo]: Creación de usuario de aplicación okta para tambo (delivery convenience) </t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Anderson Rodrigues</t>
+          <t>Augusto Andre Delgado Ruiz</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>2024-01-18</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>65a6f2682eb6e61b09373afc</t>
+          <t>65b2f72499077a813ea2e5f5</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>[Apoyo]: Query para remesas con error parte 2</t>
+          <t>[Apoyo]: Aumentar capacidades de infraestructura  al siguiente microservicio ms-mobile-bff para pruebas de performance</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -3116,95 +3116,535 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>2024-01-16</t>
+          <t>2024-01-26</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>65a552634f4f4a5ea8f02ea3</t>
+          <t>65b3d6f19467867ec3d7c7c9</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar un key y secret para customer.io</t>
+          <t>[Apoyo]: Preparación de ambiente stg para pruebas de performance de  los siguientes microservicios</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Gabriel Henrique Pereira Ferreira</t>
+          <t>Diogo Costa</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>2024-01-15</t>
+          <t>2024-01-26</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>659c41f8b85a9bd69f74593e</t>
+          <t>65b3e183be4225e2e6156026</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>[Apoyo]: Promover releases de gas a prd</t>
+          <t>[Apoyo]: Registrar nuevo secreto para el servicio ms-tap2phone-auth stg</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Diogo Costa</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-29</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>65983fb42300da8150b9f388</t>
+          <t>65b293eeecfa076431a91135</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Apoyo]: Verificar si se está bloqueando desde github actions la conexion a browserstack</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Augusto Andre Delgado Ruiz</t>
+          <t>Davis Palomino Huallanca</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>2024-01-08</t>
+          <t>2024-01-25</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>65a553588df6c453c4ac1d37</t>
+          <t>65b3e1c4e2e4cdfbac369904</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
+          <t>[Apoyo]: Registrar nuevo secreto para el servicio ms-tap2phone-auth prd</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>65b3e2744a65d13cd48d8067</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Preparación de ambiente stg para pruebas de performance de  los siguientes microservicios</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Diogo Costa</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>65b29dc0f977e4a9be7192bb</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Consulta de registros en prod que genera problemas</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>65b2ba888b73515d7a1eee5d</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Acceso seller cava de baco vtex</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>65b2b573df18d70669da5af4</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Eliminar esquema de tópicos</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>65b2bd6ea7a1ccf45042ff81</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>[Acceso]: Crear usuario nuevo</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>65aee55204786b9fffd66713</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Remove users from okta</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Lucas Ventura</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2024-01-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>65b2bfe82042a561a09f3491</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>[Apoyo]: No es posible marcar como 'not exploitable' en checkmarx</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>65b3de46f674f829096a0a8e</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Despliegue backend y bff del crm a ambiente prd</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>65b2bdba03658f0d9eee3b58</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Aprobar despliegue en prd de proyeto ms-merchant-transaction-presential-result-bs</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>65b2d0da2f76e3a1be4b651e</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Añadir columna en tabla customers de la db customer_io_prd</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2024-01-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>65b2d8c9435b0b262a6d1c9b</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Truncar tablas customers y customerslastupdate en la db customer_io_prd</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Lucas Ventura</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>65b2d8c9435b0b262a6d1c9b</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Truncar tablas customers y customerslastupdate en la db customer_io_prd</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Diego Malicia</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>65b3facaf0a11f2a73764c5e</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>[Apoyo]: [apoyo] recuperar a acceso a vpn qa</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>65b7a8298d698025ee26df2f</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
           <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>Anderson Rodrigues</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2024-01-15</t>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Augusto Andre Delgado Ruiz</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>65b3b089f9e1069176e1457b</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Los repos de ticketing tienen a promos como owner</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>65b2ef11ebf86eec615110ac</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Creacion de canal en slack</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>65b402f61a65a918fb1b6c4a</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">[Apoyo]: Aumentar capacidades de infraestructura al servicio de ms-marketplace-bff </t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Augusto Andre Delgado Ruiz</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>65b3c3f669a6ee946fce2840</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Solicitud para enviar los valores de algunos secretos (event-gateway)</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Davis Palomino Huallanca</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2024-01-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>65b79be5fec093fc19876f7d</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>[Apoyo]: Paso a prd</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Diogo Costa</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2024-01-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>65b3d5384201690e8c09b768</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>[Acceso]: Permiso de usuario</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Gabriel Henrique Pereira Ferreira</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2024-01-30</t>
         </is>
       </c>
     </row>
@@ -3246,7 +3686,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3266,7 +3706,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
@@ -3276,7 +3716,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -3286,7 +3726,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
@@ -3296,7 +3736,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -3306,7 +3746,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -3316,7 +3756,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10">
@@ -3326,7 +3766,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -3340,7 +3780,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J81"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3407,19 +3847,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -3428,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -3437,23 +3877,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>[Acceso]: Permiso de usuario</t>
+          <t>[Acceso]: Eliminar usuario</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -3462,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -3471,23 +3911,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso comercial savar vtex2</t>
+          <t>[Acceso]: Permiso de usuario</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -3496,16 +3936,16 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso dato cms</t>
+          <t>[Apoyo]: Acceso por usuario a herramienta atlan-prd</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -3539,7 +3979,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso operaciones ambientes vtex prod</t>
+          <t>[Apoyo]: Acceso seller cava de baco vtex</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -3552,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -3573,7 +4013,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso operaciones nuevos ambientes vtex 7</t>
+          <t>[Apoyo]: Acceso silabuz ambientes vtex</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -3583,7 +4023,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -3592,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -3607,7 +4047,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso operaciones vtex - welldone</t>
+          <t>[Apoyo]: Acceso soporte vtex mkp</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -3641,7 +4081,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Apoyo]: Acceso seller usams vtex </t>
+          <t xml:space="preserve">[Apoyo]: Accesos seller  watch center vtex </t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -3675,7 +4115,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Acceso silabuz ambientes vtex</t>
+          <t>[Apoyo]: Actualizar nombre de columna en tabla customers en postgresql de customer.io</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -3688,13 +4128,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -3709,7 +4149,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Apoyo]: Accesos seller achorao vtex </t>
+          <t>[Apoyo]: Actualizar schema de tópico de ticket audits en qa</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -3743,7 +4183,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Actualizar esquema en tópico de debezium</t>
+          <t>[Apoyo]: Aggregar workflow in datocms en la rama main</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -3756,13 +4196,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -3777,7 +4217,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Agregar a equipos (tribu experiencia,  reclamos &amp; otros canales)</t>
+          <t>[Apoyo]: Agregar columna en tabla customers del postgresql customer.io</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3811,7 +4251,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Agregar variables en vault para el entorno de qa (ms-merchant-transaction-presential-result-bs)</t>
+          <t>[Apoyo]: Agregar las siguientes secrets en vault(masiv_credentials)</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -3824,10 +4264,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -3845,7 +4285,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Apoyo con revisión de pull request (ms-merchant-transaction-presential-result-bs)</t>
+          <t>[Apoyo]: Agregar secrets en proyecto ms-merchant-transaction-presential-result-bs</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -3858,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -3870,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -3879,7 +4319,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Apoyo]: Apoyo en la creación de secretos para topicos de cashflow </t>
+          <t>[Apoyo]: Aprobacion de pr - marketplace</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -3889,13 +4329,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3913,7 +4353,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Aprobacion de pr</t>
+          <t>[Apoyo]: Aprobación de reinicio de pods</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -3923,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3947,7 +4387,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Aprobacion de pr de delivery partner</t>
+          <t>[Apoyo]: Aprobar action de core-toggle-definitions en prod</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3960,13 +4400,13 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -3981,7 +4421,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Compartir secretos de ms-gas-purchase-bs de qa</t>
+          <t>[Apoyo]: Aprobar despliegue en prd de proyeto ms-merchant-transaction-presential-result-bs</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -4015,7 +4455,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Conectividad con cosmosdb de yape core</t>
+          <t>[Apoyo]: Aprobar paso a produccion core-toggle-definitions</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -4028,13 +4468,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -4043,13 +4483,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Configuración tópicos conector debezium de promos por migración a yape3mp</t>
+          <t>[Apoyo]: Aprovisionamiento de infraestructura redis</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -4068,13 +4508,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -4083,7 +4523,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Consulta bd producción</t>
+          <t>[Apoyo]: Aprovisionar ms-merchant-transaction-presential-result-bs en prd</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -4093,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -4105,10 +4545,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -4117,7 +4557,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Consulta variables en stg y prod</t>
+          <t>[Apoyo]: Aumentar capacidades de infraestructura  al siguiente microservicio ms-mobile-bff para pruebas de performance</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -4130,13 +4570,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -4151,7 +4591,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Creacion canal en slack</t>
+          <t xml:space="preserve">[Apoyo]: Aumentar capacidades de infraestructura al servicio de ms-marketplace-bff </t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -4161,7 +4601,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -4170,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -4185,7 +4625,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Creación del pipeline para la carga de de usuarios para el perfil empresas</t>
+          <t>[Apoyo]: Añadir columna en tabla customers de la db customer_io_prd</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -4198,10 +4638,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4219,7 +4659,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Crear conector debezium para bd de ms-consent-bs</t>
+          <t>[Apoyo]: Añadir columna en tabla customers en postgresql de customer.io</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -4235,7 +4675,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -4244,7 +4684,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -4253,7 +4693,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Crear conector debezium para nueva tabla en 'ms-ticketing-purchase-bs' en qa</t>
+          <t>[Apoyo]: Cargar datos de usuario para posibilitar troubleshotting</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4263,10 +4703,10 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -4281,13 +4721,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Despliegue del backend, bff y front de crm a prod</t>
+          <t>[Apoyo]: Conectividad con cosmosdb de yape core</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4315,13 +4755,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Despliegue para prod</t>
+          <t>[Apoyo]: Configuración para unleash</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4331,7 +4771,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -4346,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -4355,7 +4795,7 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Ejecutar query en prod</t>
+          <t>[Apoyo]: Consulta bd producción</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4368,7 +4808,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -4380,7 +4820,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -4389,7 +4829,7 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Ejecutar script en prod</t>
+          <t>[Apoyo]: Consulta de registros en prod que genera problemas</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4423,11 +4863,11 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Eliminar repositorio ms-merchant-activation-outbox-bs</t>
+          <t>[Apoyo]: Corregir apellido en slack</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -4436,7 +4876,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -4457,11 +4897,11 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Eliminar topico confluent</t>
+          <t>[Apoyo]: Creacion de canal en slack</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -4470,13 +4910,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -4491,7 +4931,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error al abrir vault de stg desde okta (conectado a la vpn de stg)</t>
+          <t xml:space="preserve">[Apoyo]: Creación de usuario de aplicación okta para tambo (delivery convenience) </t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4501,7 +4941,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -4519,13 +4959,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error con okta</t>
+          <t>[Apoyo]: Creación del pipeline para la carga de de usuarios para el perfil empresas</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -4538,10 +4978,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -4559,7 +4999,7 @@
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error en acceso a okta</t>
+          <t>[Apoyo]: Crear conector debezium para bd del servicio ms-tap2phone-activacion en qa</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -4572,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -4584,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -4593,7 +5033,7 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error en despliegue de ms-mobile-bff en qa</t>
+          <t>[Apoyo]: Despliegue backend y bff del crm a ambiente prd</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -4606,13 +5046,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -4627,7 +5067,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Error en schema_registry_validation</t>
+          <t>[Apoyo]: Despliegue en prd de static-files-storage, release/v0.0.5</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -4640,19 +5080,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -4661,7 +5101,7 @@
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Observacion seguridad owasp</t>
+          <t>[Apoyo]: Despliegue para prod</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -4671,7 +5111,7 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -4686,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -4695,7 +5135,7 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Obtener datos de la base de datos de insurance</t>
+          <t>[Apoyo]: Ejecutar query en prd</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -4714,13 +5154,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4729,7 +5169,7 @@
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Paso a prd remesas</t>
+          <t>[Apoyo]: Eliminar esquema de tópicos</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -4763,7 +5203,7 @@
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Paso a prod de promos</t>
+          <t>[Apoyo]: Eliminar tópico / esquema qa</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -4797,7 +5237,7 @@
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Paso a producción ms-bank-account</t>
+          <t>[Apoyo]: Error al ejecutar el build en qa del servicio core-toggle-definitions</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -4810,10 +5250,10 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4831,7 +5271,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Preparación de ambiente en stg para pruebas de rendimiento</t>
+          <t>[Apoyo]: Error de despliegue en stg</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -4841,13 +5281,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4865,7 +5305,7 @@
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Preparación de ambiente stg para pruebas de performance de  los siguientes microservicios</t>
+          <t>[Apoyo]: Error en action</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -4878,7 +5318,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4890,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4899,7 +5339,7 @@
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Primer deploy ms-corecx-backoffice</t>
+          <t>[Apoyo]: Error en build de pull request</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -4909,10 +5349,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4921,7 +5361,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4933,11 +5373,11 @@
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Problema para ingresar unleash</t>
+          <t>[Apoyo]: Error en conexion a base yape 3.0 desde databricks</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -4949,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -4967,7 +5407,7 @@
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Promover releases de gas a prd</t>
+          <t>[Apoyo]: Error en url publica de gaming y ticketing de qa</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -4986,13 +5426,13 @@
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -5001,7 +5441,7 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Pull request</t>
+          <t>[Apoyo]: Ip publicas de ms-gaming-purchase-bs de qa y stg</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -5014,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -5035,7 +5475,7 @@
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Query en producción</t>
+          <t>[Apoyo]: Los repos de ticketing tienen a promos como owner</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -5048,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -5060,7 +5500,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -5069,7 +5509,7 @@
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Query para remesas con error parte 2</t>
+          <t>[Apoyo]: Matenimiento de deadlock base crm qa</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -5088,13 +5528,13 @@
         <v>0</v>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -5103,7 +5543,7 @@
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Query postgresql</t>
+          <t>[Apoyo]: No es posible marcar como 'not exploitable' en checkmarx</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -5137,11 +5577,11 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secret en vault</t>
+          <t>[Apoyo]: Nuevo espacio y acceso a datocms remesas</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
@@ -5150,19 +5590,19 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -5171,7 +5611,7 @@
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secreto [ms-movement-reprocess]</t>
+          <t>[Apoyo]: Paso a prd</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -5187,10 +5627,10 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -5205,7 +5645,7 @@
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secreto [ms-transaction-replicator]</t>
+          <t>[Apoyo]: Paso a prod ms-exchange-rate</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -5218,10 +5658,10 @@
         <v>0</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
         <v>0</v>
@@ -5239,7 +5679,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar secreto [ms-transaction-reprocess]</t>
+          <t>[Apoyo]: Preparación de ambiente en stg para pruebas de rendimiento</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -5249,13 +5689,13 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56" t="n">
         <v>0</v>
@@ -5273,7 +5713,7 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Registrar un key y secret para customer.io</t>
+          <t>[Apoyo]: Preparación de ambiente stg para pruebas de performance de  los siguientes microservicios</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -5292,13 +5732,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -5307,7 +5747,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Reiniciar pods en prod</t>
+          <t>[Apoyo]: Preparación de ambiente stg para pruebas de performance de  los siguientes microservicios:</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -5341,7 +5781,7 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Reinicio de pods ms-bank-account</t>
+          <t>[Apoyo]: Preparación de ambiente stg para pruebas de performance de  los siguientes microservicios</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -5354,13 +5794,13 @@
         <v>0</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59" t="n">
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5375,7 +5815,7 @@
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Reinicio pods ms-crm-ticket-handler</t>
+          <t>[Apoyo]: Primer deploy ms-corecx-backoffice</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -5385,7 +5825,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -5394,10 +5834,10 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -5409,11 +5849,11 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Remover a borrajo del team de ticketing</t>
+          <t>[Apoyo]: Problema con despliegue de ms-mobile-bff</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -5422,7 +5862,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
@@ -5443,7 +5883,7 @@
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Reset del pin pritunl qa</t>
+          <t>[Apoyo]: Promover release a prd de gaming-purchase</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -5456,13 +5896,13 @@
         <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5477,7 +5917,7 @@
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Revisión pr de ms-corecx-bff</t>
+          <t>[Apoyo]: Promover release a prod</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -5490,10 +5930,10 @@
         <v>0</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G63" t="n">
         <v>0</v>
@@ -5511,7 +5951,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se bloquio la cuenta okta</t>
+          <t>[Apoyo]: Promover release a prod en yapetienda</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -5545,7 +5985,7 @@
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se solicita correr script y exportar resultados.</t>
+          <t>[Apoyo]: Promover releases de gaming a prd</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -5579,14 +6019,14 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se solicita registrar un nuevo equipo llamado 'ticketing' en slack</t>
+          <t>[Apoyo]: Registrar nuevo secreto para el servicio ms-tap2phone-auth prd</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -5604,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -5613,7 +6053,7 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Se solicita replicar algunas secrets de qa a stg en 'ms-ticketing-purchase-bs'.</t>
+          <t>[Apoyo]: Registrar nuevo secreto para el servicio ms-tap2phone-auth stg</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5647,7 +6087,7 @@
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Secretos para encrypt</t>
+          <t>[Apoyo]: Registrar secreto [ms-movement-collector]</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5660,10 +6100,10 @@
         <v>0</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>0</v>
@@ -5681,7 +6121,7 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Solicitud para enviar los valores de algunos secretos (event-gateway)</t>
+          <t>[Apoyo]: Remoción y creación de nuevo repositorio</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5691,10 +6131,10 @@
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
         <v>0</v>
@@ -5715,7 +6155,7 @@
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Validar disponiblidad de rutas y tópicos de event gateway</t>
+          <t>[Apoyo]: Remove users from okta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5740,16 +6180,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: Verificar registro en redis</t>
+          <t>[Apoyo]: Revisión de primer pr</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5759,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
@@ -5774,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
         <v>0</v>
@@ -5783,32 +6223,32 @@
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: [ms-insurance-bs] aprobación de pr</t>
+          <t>[Apoyo]: Se solicita registrar un nuevo equipo llamado 'ticketing' en slack</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72" t="n">
         <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
         <v>0</v>
@@ -5817,7 +6257,7 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>[Apoyo]: [yape][checkout] - permisos de aplicación para escritura en firestore</t>
+          <t>[Apoyo]: Solicito cambiar mi role en okta al de lt.</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5833,7 +6273,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73" t="n">
         <v>0</v>
@@ -5851,7 +6291,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: https://github.com/yaperos/app-convenience-portalseller-web</t>
+          <t>[Apoyo]: Solicitud para enviar los valores de algunos secretos (event-gateway)</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5864,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F74" t="n">
         <v>0</v>
@@ -5873,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5885,7 +6325,7 @@
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: https://github.com/yaperos/ms-merchant-transaction-presential-result-bs</t>
+          <t>[Apoyo]: Truncar tablas customers y customerslastupdate en la db customer_io_prd</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5901,10 +6341,10 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -5913,17 +6353,17 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: https://github.com/yaperos/ms-online-subscription-integration-bff</t>
+          <t>[Apoyo]: Verificar registro en redis</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
@@ -5935,13 +6375,13 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G76" t="n">
         <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5953,7 +6393,7 @@
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-convenience-portalseller-bs</t>
+          <t>[Apoyo]: Verificar si se está bloqueando desde github actions la conexion a browserstack</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5975,7 +6415,7 @@
         <v>0</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -5987,7 +6427,7 @@
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-movement-collector</t>
+          <t>[Apoyo]: [apoyo] recuperar a acceso a vpn qa</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -6000,7 +6440,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
@@ -6012,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
         <v>0</v>
@@ -6021,7 +6461,7 @@
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-movement-reprocess</t>
+          <t>[Apoyo]: [apoyo]: revisión pr: core-toggle-definitions</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -6034,7 +6474,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
@@ -6043,19 +6483,19 @@
         <v>0</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>[Primer Despliegue]: ms-transaction-replicator</t>
+          <t>[Apoyo]: [ms-insurance-bff] aprobación de pr</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -6068,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80" t="n">
         <v>0</v>
@@ -6077,46 +6517,318 @@
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
+          <t>[Apoyo]: [ms-insurance-bs] aprobación para el despliegue a prod</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>[Primer Despliegue]: https://github.com/yaperos/app-convenience-portalseller-web</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>[Primer Despliegue]: https://github.com/yaperos/ms-merchant-transaction-presential-result-bs</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>[Primer Despliegue]: https://github.com/yaperos/ms-online-subscription-integration-bff</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>[Primer Despliegue]: ms-convenience-portalseller-bs</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>[Primer Despliegue]: ms-movement-collector</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>[Primer Despliegue]: ms-movement-reprocess</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>[Primer Despliegue]: ms-transaction-replicator</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
           <t>[Primer Despliegue]: ms-transaction-reprocess</t>
         </is>
       </c>
-      <c r="B81" t="n">
-        <v>0</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" t="n">
-        <v>1</v>
-      </c>
-      <c r="F81" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" t="n">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="n">
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
         <v>1</v>
       </c>
     </row>
